--- a/biology/Botanique/Joseph_Andorfer_Ewan/Joseph_Andorfer_Ewan.xlsx
+++ b/biology/Botanique/Joseph_Andorfer_Ewan/Joseph_Andorfer_Ewan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Andorfer Ewan est un botaniste américain, né le 24 octobre 1909 et mort le 5 décembre 1999.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Andorfer Ewan enseigne la botanique à l’Université Tulane de 1947 à 1977. Passionné par l’histoire de l’histoire naturelle, il avait rassemblé une collection de plus de 5 000 ouvrages consacrés à ce sujet qu’il cède au Jardin botanique du Missouri. Seul ou avec sa femme, Nesta Dunn Ewan, il signe plus de 400 publications.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notice nécrologique de Connie Wolf parue dans Plant Science Bulletin, 46 (1) - Spring 2000 (en anglais)</t>
         </is>
